--- a/data/trans_orig/P21D_3_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P21D_3_R-Dificultad-trans_orig.xlsx
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3738</v>
+        <v>4194</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0037802939278144</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01892752038109264</v>
+        <v>0.02123656661256837</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>2811</v>
+        <v>2859</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002081343441321445</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01042290215020207</v>
+        <v>0.01059799681642006</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4793</v>
+        <v>5403</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00279949136299804</v>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01025938064766388</v>
+        <v>0.01156443831843313</v>
       </c>
     </row>
     <row r="5">
@@ -812,7 +812,7 @@
         <v>196748</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>193757</v>
+        <v>193301</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>197495</v>
@@ -821,7 +821,7 @@
         <v>0.9962197060721856</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9810724796189074</v>
+        <v>0.9787634333874318</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -833,7 +833,7 @@
         <v>269166</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>266916</v>
+        <v>266868</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>269727</v>
@@ -842,7 +842,7 @@
         <v>0.9979186565586786</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9895770978497977</v>
+        <v>0.98940200318358</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -854,7 +854,7 @@
         <v>465914</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>462429</v>
+        <v>461819</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>467222</v>
@@ -863,7 +863,7 @@
         <v>0.9972005086370018</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9897406193523361</v>
+        <v>0.9884355616815672</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4012</v>
+        <v>3783</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.00156286093568479</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.008370715210847847</v>
+        <v>0.007892889501130859</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>3318</v>
+        <v>4364</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0008557198548767354</v>
@@ -1004,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.003790307250317044</v>
+        <v>0.004984478434655048</v>
       </c>
     </row>
     <row r="8">
@@ -1034,7 +1034,7 @@
         <v>478598</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>475335</v>
+        <v>475564</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>479347</v>
@@ -1043,7 +1043,7 @@
         <v>0.9984371390643152</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.991629284789151</v>
+        <v>0.992107110498869</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1055,7 +1055,7 @@
         <v>874716</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>872147</v>
+        <v>871101</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>875465</v>
@@ -1064,7 +1064,7 @@
         <v>0.9991442801451232</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9962096927496833</v>
+        <v>0.995015521565345</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>4194</v>
+        <v>3482</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.001408523404604009</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.008410505904167025</v>
+        <v>0.006984220219711792</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1</v>
@@ -1365,16 +1365,16 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>3451</v>
+        <v>3857</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.0006701762271531578</v>
+        <v>0.0006701762271531577</v>
       </c>
       <c r="V13" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.003293440356419746</v>
+        <v>0.003680376981550941</v>
       </c>
     </row>
     <row r="14">
@@ -1404,16 +1404,16 @@
         <v>497905</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>494413</v>
+        <v>495125</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>498607</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9985914765953959</v>
+        <v>0.998591476595396</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.991589494095833</v>
+        <v>0.9930157797802881</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1425,16 +1425,16 @@
         <v>1047230</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1044481</v>
+        <v>1044075</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>1047932</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9993298237728468</v>
+        <v>0.9993298237728467</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9967065596435803</v>
+        <v>0.996319623018449</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3878</v>
+        <v>4177</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.000481379859458144</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.002500596017150712</v>
+        <v>0.002693426894217568</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1550,19 +1550,19 @@
         <v>2013</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5571</v>
+        <v>5176</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.001196212880492378</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0003306669060518244</v>
+        <v>0.0003326005984518949</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.00331095735466587</v>
+        <v>0.003075965828170658</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -1571,19 +1571,19 @@
         <v>2759</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6354</v>
+        <v>6524</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0008533582287634896</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.000230381184064653</v>
+        <v>0.0002301908246598566</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.001965017177423871</v>
+        <v>0.002017697510660962</v>
       </c>
     </row>
     <row r="17">
@@ -1600,7 +1600,7 @@
         <v>1550191</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1547060</v>
+        <v>1546761</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>1550938</v>
@@ -1609,7 +1609,7 @@
         <v>0.9995186201405419</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.997499403982849</v>
+        <v>0.9973065731057823</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -1621,19 +1621,19 @@
         <v>1680670</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1677112</v>
+        <v>1677507</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1682127</v>
+        <v>1682123</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9988037871195077</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9966890426453339</v>
+        <v>0.9969240341718298</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9996693330939481</v>
+        <v>0.9996673994015481</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3796</v>
@@ -1642,19 +1642,19 @@
         <v>3230862</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3227267</v>
+        <v>3227097</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3232876</v>
+        <v>3232877</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9991466417712364</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9980349828225761</v>
+        <v>0.9979823024893393</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9997696188159353</v>
+        <v>0.9997698091753401</v>
       </c>
     </row>
     <row r="18">
